--- a/辅助总表/经济消耗产出表/经济数值总表new.xlsx
+++ b/辅助总表/经济消耗产出表/经济数值总表new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="11"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="20160" tabRatio="500" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="标准数值" sheetId="4" r:id="rId1"/>
@@ -5231,7 +5231,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5255,6 +5255,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF464646"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="13">
@@ -5358,7 +5365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -5377,6 +5384,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -15523,7 +15531,7 @@
   <dimension ref="A1:AW17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -22254,14 +22262,33 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D3:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="4:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="D3" s="18"/>
+    </row>
+    <row r="4" spans="4:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="4:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="4:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="4:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="4:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="D8" s="18"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22272,7 +22299,7 @@
   <dimension ref="D1:AA107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -22442,7 +22469,7 @@
         <f>VLOOKUP($F8,标准数值!$C:$Y,G$1,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="12">
         <f>VLOOKUP($F8,标准数值!$C:$Y,H$1,FALSE)</f>
         <v>16</v>
       </c>

--- a/辅助总表/经济消耗产出表/经济数值总表new.xlsx
+++ b/辅助总表/经济消耗产出表/经济数值总表new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="20160" tabRatio="500" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="20160" tabRatio="500" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="标准数值" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <sheet name="坐骑" sheetId="22" r:id="rId20"/>
     <sheet name="宝石估算" sheetId="24" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2926" uniqueCount="423">
   <si>
     <t>角色</t>
     <rPh sb="0" eb="1">
@@ -5223,6 +5223,186 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>shui'jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶消耗系统g</t>
+    <rPh sb="0" eb="1">
+      <t>shui'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao'h</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xi'ton</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈愿</t>
+    <rPh sb="0" eb="1">
+      <t>qi'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通抽卡</t>
+    <rPh sb="0" eb="1">
+      <t>pu't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chou'ka</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级抽卡</t>
+    <rPh sb="0" eb="1">
+      <t>gao'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chou'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伙伴培养</t>
+    <rPh sb="0" eb="1">
+      <t>huo'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'yang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聘请大师</t>
+    <rPh sb="0" eb="1">
+      <t>pin'q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>da</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挖矿</t>
+    <rPh sb="0" eb="1">
+      <t>wa'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买挖矿次数</t>
+    <rPh sb="0" eb="1">
+      <t>gou'm</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wa'k</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ci'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宝商店</t>
+    <rPh sb="0" eb="1">
+      <t>yuan'bao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深渊</t>
+    <rPh sb="0" eb="1">
+      <t>shen'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新购买</t>
+    <rPh sb="0" eb="1">
+      <t>shua'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gou'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙穴</t>
+    <rPh sb="0" eb="1">
+      <t>long'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚金佛</t>
+    <rPh sb="0" eb="1">
+      <t>ju</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场</t>
+    <rPh sb="0" eb="1">
+      <t>jing'j'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬赏</t>
+    <rPh sb="0" eb="1">
+      <t>xuan'shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高品质刷新</t>
+    <rPh sb="0" eb="1">
+      <t>gao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>pin'z</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shua'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级培养</t>
+    <rPh sb="0" eb="1">
+      <t>gao'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'yang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战次数购买</t>
+    <rPh sb="0" eb="1">
+      <t>tiao'z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ci'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gou'm</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -15530,8 +15710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -16582,12 +16762,108 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B4:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C6" t="s">
+        <v>407</v>
+      </c>
+      <c r="D6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>411</v>
+      </c>
+      <c r="C14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>414</v>
+      </c>
+      <c r="C16" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>287</v>
+      </c>
+      <c r="C18" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>416</v>
+      </c>
+      <c r="C20" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>417</v>
+      </c>
+      <c r="C22" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>418</v>
+      </c>
+      <c r="C24" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>419</v>
+      </c>
+      <c r="C26" t="s">
+        <v>420</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37169,8 +37445,8 @@
   <dimension ref="A1:AJ114"/>
   <sheetViews>
     <sheetView topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="14" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL36" sqref="AL36"/>
+      <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG38" sqref="AG38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>

--- a/辅助总表/经济消耗产出表/经济数值总表new.xlsx
+++ b/辅助总表/经济消耗产出表/经济数值总表new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="20160" tabRatio="500" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="20160" tabRatio="500" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="标准数值" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <sheet name="坐骑" sheetId="22" r:id="rId20"/>
     <sheet name="宝石估算" sheetId="24" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -15710,8 +15710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -16764,8 +16764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>

--- a/辅助总表/经济消耗产出表/经济数值总表new.xlsx
+++ b/辅助总表/经济消耗产出表/经济数值总表new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="20160" tabRatio="500" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="标准数值" sheetId="4" r:id="rId1"/>
@@ -15710,8 +15710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -19056,8 +19056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:O105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -19138,6 +19138,9 @@
         <f>IF(F6=F5,G6+J5,1)</f>
         <v>1</v>
       </c>
+      <c r="K6">
+        <v>600</v>
+      </c>
       <c r="N6" t="s">
         <v>193</v>
       </c>
@@ -19179,6 +19182,10 @@
         <f t="shared" ref="J7:J70" si="2">IF(F7=F6,G7+J6,1)</f>
         <v>2</v>
       </c>
+      <c r="K7">
+        <f>I7*100</f>
+        <v>600</v>
+      </c>
       <c r="N7" t="s">
         <v>194</v>
       </c>
@@ -19220,6 +19227,10 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
+      <c r="K8">
+        <f t="shared" ref="K8:K71" si="4">I8*100</f>
+        <v>600</v>
+      </c>
       <c r="N8" t="s">
         <v>195</v>
       </c>
@@ -19261,6 +19272,10 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B10">
@@ -19295,6 +19310,10 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B11">
@@ -19329,6 +19348,10 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B12">
@@ -19363,6 +19386,10 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B13">
@@ -19397,6 +19424,10 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B14">
@@ -19431,6 +19462,10 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B15">
@@ -19465,6 +19500,10 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B16">
@@ -19499,8 +19538,13 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B17">
         <v>12</v>
       </c>
@@ -19533,8 +19577,12 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B18">
         <v>13</v>
       </c>
@@ -19567,8 +19615,12 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>14</v>
       </c>
@@ -19601,8 +19653,12 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>15</v>
       </c>
@@ -19635,8 +19691,12 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>16</v>
       </c>
@@ -19669,8 +19729,12 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>17</v>
       </c>
@@ -19703,8 +19767,12 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23">
         <v>18</v>
       </c>
@@ -19737,8 +19805,12 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24">
         <v>19</v>
       </c>
@@ -19771,8 +19843,12 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25">
         <v>20</v>
       </c>
@@ -19805,8 +19881,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26">
         <v>21</v>
       </c>
@@ -19839,8 +19919,12 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27">
         <v>22</v>
       </c>
@@ -19873,8 +19957,12 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28">
         <v>23</v>
       </c>
@@ -19907,8 +19995,12 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29">
         <v>24</v>
       </c>
@@ -19941,8 +20033,12 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B30">
         <v>25</v>
       </c>
@@ -19975,8 +20071,12 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K30">
+        <f t="shared" si="4"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B31">
         <v>26</v>
       </c>
@@ -20009,8 +20109,12 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K31">
+        <f t="shared" si="4"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B32">
         <v>27</v>
       </c>
@@ -20043,8 +20147,12 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K32">
+        <f t="shared" si="4"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B33">
         <v>28</v>
       </c>
@@ -20077,8 +20185,12 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K33">
+        <f t="shared" si="4"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B34">
         <v>29</v>
       </c>
@@ -20111,8 +20223,12 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K34">
+        <f t="shared" si="4"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B35">
         <v>30</v>
       </c>
@@ -20145,8 +20261,12 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K35">
+        <f t="shared" si="4"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B36">
         <v>31</v>
       </c>
@@ -20179,8 +20299,12 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K36">
+        <f t="shared" si="4"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B37">
         <v>32</v>
       </c>
@@ -20213,8 +20337,12 @@
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K37">
+        <f t="shared" si="4"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B38">
         <v>33</v>
       </c>
@@ -20247,8 +20375,12 @@
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K38">
+        <f t="shared" si="4"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B39">
         <v>34</v>
       </c>
@@ -20281,8 +20413,12 @@
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K39">
+        <f t="shared" si="4"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B40">
         <v>35</v>
       </c>
@@ -20315,8 +20451,12 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K40">
+        <f t="shared" si="4"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B41">
         <v>36</v>
       </c>
@@ -20349,8 +20489,12 @@
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K41">
+        <f t="shared" si="4"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B42">
         <v>37</v>
       </c>
@@ -20383,8 +20527,12 @@
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K42">
+        <f t="shared" si="4"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B43">
         <v>38</v>
       </c>
@@ -20417,8 +20565,12 @@
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K43">
+        <f t="shared" si="4"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B44">
         <v>39</v>
       </c>
@@ -20451,8 +20603,12 @@
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K44">
+        <f t="shared" si="4"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B45">
         <v>40</v>
       </c>
@@ -20485,8 +20641,12 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K45">
+        <f t="shared" si="4"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B46">
         <v>41</v>
       </c>
@@ -20519,8 +20679,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K46">
+        <f t="shared" si="4"/>
+        <v>6410.0000000000018</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B47">
         <v>42</v>
       </c>
@@ -20553,8 +20717,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K47">
+        <f t="shared" si="4"/>
+        <v>6410.0000000000018</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B48">
         <v>43</v>
       </c>
@@ -20587,6 +20755,10 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
+      <c r="K48">
+        <f t="shared" si="4"/>
+        <v>6410.0000000000018</v>
+      </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B49">
@@ -20621,6 +20793,10 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
+      <c r="K49">
+        <f t="shared" si="4"/>
+        <v>6410.0000000000018</v>
+      </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B50">
@@ -20655,6 +20831,10 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
+      <c r="K50">
+        <f t="shared" si="4"/>
+        <v>6410.0000000000018</v>
+      </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B51">
@@ -20689,6 +20869,10 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
+      <c r="K51">
+        <f t="shared" si="4"/>
+        <v>6410.0000000000018</v>
+      </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B52">
@@ -20723,6 +20907,10 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
+      <c r="K52">
+        <f t="shared" si="4"/>
+        <v>6409.9999999999909</v>
+      </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B53">
@@ -20757,6 +20945,10 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
+      <c r="K53">
+        <f t="shared" si="4"/>
+        <v>6409.9999999999909</v>
+      </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B54">
@@ -20791,6 +20983,10 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
+      <c r="K54">
+        <f t="shared" si="4"/>
+        <v>6409.9999999999909</v>
+      </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B55">
@@ -20825,6 +21021,10 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
+      <c r="K55">
+        <f t="shared" si="4"/>
+        <v>6409.9999999999909</v>
+      </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B56">
@@ -20859,6 +21059,10 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
+      <c r="K56">
+        <f t="shared" si="4"/>
+        <v>12820.000000000004</v>
+      </c>
       <c r="O56">
         <f>128/8</f>
         <v>16</v>
@@ -20897,6 +21101,10 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
+      <c r="K57">
+        <f t="shared" si="4"/>
+        <v>12820.000000000004</v>
+      </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B58">
@@ -20931,6 +21139,10 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
+      <c r="K58">
+        <f t="shared" si="4"/>
+        <v>12820.000000000004</v>
+      </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B59">
@@ -20965,6 +21177,10 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
+      <c r="K59">
+        <f t="shared" si="4"/>
+        <v>12820.000000000004</v>
+      </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B60">
@@ -20999,6 +21215,10 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
+      <c r="K60">
+        <f t="shared" si="4"/>
+        <v>12820.000000000004</v>
+      </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B61">
@@ -21033,6 +21253,10 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
+      <c r="K61">
+        <f t="shared" si="4"/>
+        <v>12819.999999999982</v>
+      </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B62">
@@ -21067,6 +21291,10 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
+      <c r="K62">
+        <f t="shared" si="4"/>
+        <v>12819.999999999982</v>
+      </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B63">
@@ -21101,6 +21329,10 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
+      <c r="K63">
+        <f t="shared" si="4"/>
+        <v>12819.999999999982</v>
+      </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B64">
@@ -21135,8 +21367,12 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K64">
+        <f t="shared" si="4"/>
+        <v>12819.999999999982</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B65">
         <v>60</v>
       </c>
@@ -21169,8 +21405,12 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K65">
+        <f t="shared" si="4"/>
+        <v>12819.999999999982</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B66">
         <v>61</v>
       </c>
@@ -21203,8 +21443,12 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K66">
+        <f t="shared" si="4"/>
+        <v>25650</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B67">
         <v>62</v>
       </c>
@@ -21237,8 +21481,12 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K67">
+        <f t="shared" si="4"/>
+        <v>25650</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B68">
         <v>63</v>
       </c>
@@ -21271,8 +21519,12 @@
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K68">
+        <f t="shared" si="4"/>
+        <v>25650</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B69">
         <v>64</v>
       </c>
@@ -21305,8 +21557,12 @@
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K69">
+        <f t="shared" si="4"/>
+        <v>25650</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B70">
         <v>65</v>
       </c>
@@ -21339,13 +21595,17 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K70">
+        <f t="shared" si="4"/>
+        <v>25650</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B71">
         <v>66</v>
       </c>
       <c r="C71">
-        <f t="shared" ref="C71:C105" si="4">INT(B71/10)</f>
+        <f t="shared" ref="C71:C105" si="5">INT(B71/10)</f>
         <v>6</v>
       </c>
       <c r="D71" s="4">
@@ -21366,20 +21626,24 @@
         <v>4101.9999999999991</v>
       </c>
       <c r="I71">
-        <f t="shared" ref="I71:I105" si="5">H71-H70</f>
+        <f t="shared" ref="I71:I105" si="6">H71-H70</f>
         <v>256.5</v>
       </c>
       <c r="J71">
-        <f t="shared" ref="J71:J105" si="6">IF(F71=F70,G71+J70,1)</f>
+        <f t="shared" ref="J71:J105" si="7">IF(F71=F70,G71+J70,1)</f>
         <v>54</v>
       </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K71">
+        <f t="shared" si="4"/>
+        <v>25650</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B72">
         <v>67</v>
       </c>
       <c r="C72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="D72" s="4">
@@ -21400,20 +21664,24 @@
         <v>4358.4999999999991</v>
       </c>
       <c r="I72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>256.5</v>
       </c>
       <c r="J72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K72">
+        <f t="shared" ref="K72:K105" si="8">I72*100</f>
+        <v>25650</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B73">
         <v>68</v>
       </c>
       <c r="C73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="D73" s="4">
@@ -21434,20 +21702,24 @@
         <v>4614.9999999999991</v>
       </c>
       <c r="I73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>256.5</v>
       </c>
       <c r="J73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K73">
+        <f t="shared" si="8"/>
+        <v>25650</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B74">
         <v>69</v>
       </c>
       <c r="C74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="D74" s="4">
@@ -21468,20 +21740,24 @@
         <v>4871.4999999999991</v>
       </c>
       <c r="I74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>256.5</v>
       </c>
       <c r="J74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K74">
+        <f t="shared" si="8"/>
+        <v>25650</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B75">
         <v>70</v>
       </c>
       <c r="C75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="D75" s="4">
@@ -21502,20 +21778,24 @@
         <v>5127.9999999999991</v>
       </c>
       <c r="I75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>256.5</v>
       </c>
       <c r="J75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K75">
+        <f t="shared" si="8"/>
+        <v>25650</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B76">
         <v>71</v>
       </c>
       <c r="C76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="D76" s="4">
@@ -21536,20 +21816,24 @@
         <v>5641.1999999999989</v>
       </c>
       <c r="I76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>513.19999999999982</v>
       </c>
       <c r="J76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K76">
+        <f t="shared" si="8"/>
+        <v>51319.999999999985</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B77">
         <v>72</v>
       </c>
       <c r="C77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="D77" s="4">
@@ -21570,20 +21854,24 @@
         <v>6154.3999999999987</v>
       </c>
       <c r="I77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>513.19999999999982</v>
       </c>
       <c r="J77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K77">
+        <f t="shared" si="8"/>
+        <v>51319.999999999985</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B78">
         <v>73</v>
       </c>
       <c r="C78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="D78" s="4">
@@ -21604,20 +21892,24 @@
         <v>6667.5999999999985</v>
       </c>
       <c r="I78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>513.19999999999982</v>
       </c>
       <c r="J78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K78">
+        <f t="shared" si="8"/>
+        <v>51319.999999999985</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B79">
         <v>74</v>
       </c>
       <c r="C79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="D79" s="4">
@@ -21638,20 +21930,24 @@
         <v>7180.7999999999984</v>
       </c>
       <c r="I79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>513.19999999999982</v>
       </c>
       <c r="J79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K79">
+        <f t="shared" si="8"/>
+        <v>51319.999999999985</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B80">
         <v>75</v>
       </c>
       <c r="C80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="D80" s="4">
@@ -21672,20 +21968,24 @@
         <v>7693.9999999999982</v>
       </c>
       <c r="I80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>513.19999999999982</v>
       </c>
       <c r="J80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K80">
+        <f t="shared" si="8"/>
+        <v>51319.999999999985</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B81">
         <v>76</v>
       </c>
       <c r="C81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="D81" s="4">
@@ -21706,20 +22006,24 @@
         <v>8207.1999999999989</v>
       </c>
       <c r="I81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>513.20000000000073</v>
       </c>
       <c r="J81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K81">
+        <f t="shared" si="8"/>
+        <v>51320.000000000073</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B82">
         <v>77</v>
       </c>
       <c r="C82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="D82" s="4">
@@ -21740,20 +22044,24 @@
         <v>8720.4</v>
       </c>
       <c r="I82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>513.20000000000073</v>
       </c>
       <c r="J82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K82">
+        <f t="shared" si="8"/>
+        <v>51320.000000000073</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B83">
         <v>78</v>
       </c>
       <c r="C83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="D83" s="4">
@@ -21774,20 +22082,24 @@
         <v>9233.6</v>
       </c>
       <c r="I83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>513.20000000000073</v>
       </c>
       <c r="J83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K83">
+        <f t="shared" si="8"/>
+        <v>51320.000000000073</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B84">
         <v>79</v>
       </c>
       <c r="C84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="D84" s="4">
@@ -21808,20 +22120,24 @@
         <v>9746.8000000000011</v>
       </c>
       <c r="I84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>513.20000000000073</v>
       </c>
       <c r="J84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K84">
+        <f t="shared" si="8"/>
+        <v>51320.000000000073</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B85">
         <v>80</v>
       </c>
       <c r="C85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D85" s="4">
@@ -21842,20 +22158,24 @@
         <v>10260.000000000002</v>
       </c>
       <c r="I85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>513.20000000000073</v>
       </c>
       <c r="J85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K85">
+        <f t="shared" si="8"/>
+        <v>51320.000000000073</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B86">
         <v>81</v>
       </c>
       <c r="C86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D86" s="4">
@@ -21876,20 +22196,24 @@
         <v>11286.500000000002</v>
       </c>
       <c r="I86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1026.5</v>
       </c>
       <c r="J86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K86">
+        <f t="shared" si="8"/>
+        <v>102650</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B87">
         <v>82</v>
       </c>
       <c r="C87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D87" s="4">
@@ -21910,20 +22234,24 @@
         <v>12313.000000000002</v>
       </c>
       <c r="I87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1026.5</v>
       </c>
       <c r="J87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K87">
+        <f t="shared" si="8"/>
+        <v>102650</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B88">
         <v>83</v>
       </c>
       <c r="C88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D88" s="4">
@@ -21944,20 +22272,24 @@
         <v>13339.500000000002</v>
       </c>
       <c r="I88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1026.5</v>
       </c>
       <c r="J88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K88">
+        <f t="shared" si="8"/>
+        <v>102650</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B89">
         <v>84</v>
       </c>
       <c r="C89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D89" s="4">
@@ -21978,20 +22310,24 @@
         <v>14366.000000000002</v>
       </c>
       <c r="I89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1026.5</v>
       </c>
       <c r="J89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K89">
+        <f t="shared" si="8"/>
+        <v>102650</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B90">
         <v>85</v>
       </c>
       <c r="C90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D90" s="4">
@@ -22012,20 +22348,24 @@
         <v>15392.500000000002</v>
       </c>
       <c r="I90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1026.5</v>
       </c>
       <c r="J90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K90">
+        <f t="shared" si="8"/>
+        <v>102650</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B91">
         <v>86</v>
       </c>
       <c r="C91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D91" s="4">
@@ -22046,20 +22386,24 @@
         <v>16419</v>
       </c>
       <c r="I91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1026.4999999999982</v>
       </c>
       <c r="J91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K91">
+        <f t="shared" si="8"/>
+        <v>102649.99999999983</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B92">
         <v>87</v>
       </c>
       <c r="C92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D92" s="4">
@@ -22080,20 +22424,24 @@
         <v>17445.5</v>
       </c>
       <c r="I92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1026.5</v>
       </c>
       <c r="J92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K92">
+        <f t="shared" si="8"/>
+        <v>102650</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B93">
         <v>88</v>
       </c>
       <c r="C93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D93" s="4">
@@ -22114,20 +22462,24 @@
         <v>18472</v>
       </c>
       <c r="I93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1026.5</v>
       </c>
       <c r="J93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K93">
+        <f t="shared" si="8"/>
+        <v>102650</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B94">
         <v>89</v>
       </c>
       <c r="C94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D94" s="4">
@@ -22148,20 +22500,24 @@
         <v>19498.5</v>
       </c>
       <c r="I94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1026.5</v>
       </c>
       <c r="J94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K94">
+        <f t="shared" si="8"/>
+        <v>102650</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B95">
         <v>90</v>
       </c>
       <c r="C95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="D95" s="4">
@@ -22182,20 +22538,24 @@
         <v>20525</v>
       </c>
       <c r="I95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1026.5</v>
       </c>
       <c r="J95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K95">
+        <f t="shared" si="8"/>
+        <v>102650</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B96">
         <v>91</v>
       </c>
       <c r="C96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="D96" s="4">
@@ -22216,20 +22576,24 @@
         <v>22578.6</v>
       </c>
       <c r="I96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2053.5999999999985</v>
       </c>
       <c r="J96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K96">
+        <f t="shared" si="8"/>
+        <v>205359.99999999985</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B97">
         <v>92</v>
       </c>
       <c r="C97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="D97" s="4">
@@ -22250,20 +22614,24 @@
         <v>24632.199999999997</v>
       </c>
       <c r="I97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2053.5999999999985</v>
       </c>
       <c r="J97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K97">
+        <f t="shared" si="8"/>
+        <v>205359.99999999985</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B98">
         <v>93</v>
       </c>
       <c r="C98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="D98" s="4">
@@ -22284,20 +22652,24 @@
         <v>26685.799999999996</v>
       </c>
       <c r="I98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2053.5999999999985</v>
       </c>
       <c r="J98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K98">
+        <f t="shared" si="8"/>
+        <v>205359.99999999985</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B99">
         <v>94</v>
       </c>
       <c r="C99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="D99" s="4">
@@ -22318,20 +22690,24 @@
         <v>28739.399999999994</v>
       </c>
       <c r="I99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2053.5999999999985</v>
       </c>
       <c r="J99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K99">
+        <f t="shared" si="8"/>
+        <v>205359.99999999985</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B100">
         <v>95</v>
       </c>
       <c r="C100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="D100" s="4">
@@ -22352,20 +22728,24 @@
         <v>30792.999999999993</v>
       </c>
       <c r="I100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2053.5999999999985</v>
       </c>
       <c r="J100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K100">
+        <f t="shared" si="8"/>
+        <v>205359.99999999985</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B101">
         <v>96</v>
       </c>
       <c r="C101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="D101" s="4">
@@ -22386,20 +22766,24 @@
         <v>32846.599999999991</v>
       </c>
       <c r="I101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2053.5999999999985</v>
       </c>
       <c r="J101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K101">
+        <f t="shared" si="8"/>
+        <v>205359.99999999985</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B102">
         <v>97</v>
       </c>
       <c r="C102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="D102" s="4">
@@ -22420,20 +22804,24 @@
         <v>34900.19999999999</v>
       </c>
       <c r="I102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2053.5999999999985</v>
       </c>
       <c r="J102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K102">
+        <f t="shared" si="8"/>
+        <v>205359.99999999985</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B103">
         <v>98</v>
       </c>
       <c r="C103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="D103" s="4">
@@ -22454,20 +22842,24 @@
         <v>36953.799999999988</v>
       </c>
       <c r="I103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2053.5999999999985</v>
       </c>
       <c r="J103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K103">
+        <f t="shared" si="8"/>
+        <v>205359.99999999985</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B104">
         <v>99</v>
       </c>
       <c r="C104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="D104" s="4">
@@ -22488,20 +22880,24 @@
         <v>39007.399999999987</v>
       </c>
       <c r="I104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2053.5999999999985</v>
       </c>
       <c r="J104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K104">
+        <f t="shared" si="8"/>
+        <v>205359.99999999985</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B105">
         <v>100</v>
       </c>
       <c r="C105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="D105" s="4">
@@ -22522,12 +22918,16 @@
         <v>41060.999999999985</v>
       </c>
       <c r="I105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2053.5999999999985</v>
       </c>
       <c r="J105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>70</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="8"/>
+        <v>205359.99999999985</v>
       </c>
     </row>
   </sheetData>
